--- a/template.xlsx
+++ b/template.xlsx
@@ -1,45 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\diplomka-AR\aplikace_v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annav\OneDrive\Počítač\sp-analyza-rizik-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1820EAD7-ACB7-41B1-A85D-BA849108BD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="popInfo" sheetId="5" r:id="rId1"/>
     <sheet name="aktiva" sheetId="1" r:id="rId2"/>
     <sheet name="exOp" sheetId="2" r:id="rId3"/>
-    <sheet name="08-08-2022" sheetId="3" r:id="rId4"/>
-    <sheet name="01-08-2023" sheetId="4" r:id="rId5"/>
+    <sheet name="navOp" sheetId="6" r:id="rId4"/>
+    <sheet name="08-08-2022" sheetId="3" r:id="rId5"/>
+    <sheet name="01-08-2023" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="717">
   <si>
     <t>Budova a její podpůrná infrastruktura - Pracoviště_1</t>
   </si>
@@ -2064,17 +2054,266 @@
   <si>
     <t>Živelní pohromy a neočekávané události (záplava, vítr, oheň, blesk, zemětřesení atp.)</t>
   </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>Rozpočet KyBe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Větší angažovanost některých členů vedení v rámci KyBe.
+- Větší přehled o nákladech na KyBe.</t>
+  </si>
+  <si>
+    <t>SIEM - optimalizace korelačních pravidel</t>
+  </si>
+  <si>
+    <t>Návrh nových praidel a celkové odladění a ověření účinnosti stávajícího SIEM řešení.</t>
+  </si>
+  <si>
+    <t>Obměna switchů v LAN</t>
+  </si>
+  <si>
+    <t>Interní audit ISMS a BCMS provedený externě</t>
+  </si>
+  <si>
+    <t>Provedení interního auditu ISMS a BCMS externím auditorem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Získání vnějšího nezaujatého pohledu.
+- Úspora interních zdrojů.
+- Doklad úrovně ISMS a BCMS pro zákazníky.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Nalezení případných bezpečnostních děr/chyb v rámci řešení.
+- Zlepšení bezpečnosti vývoje RIS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Omezení rizik spojených s uživateli a jejich chováním/chybami.
+- Zlepšení reakce na incidenty.
+- Seznámení zaměstnanců s aktuálními riziky.</t>
+  </si>
+  <si>
+    <t>Revize procesu zvládání KBU/KBI</t>
+  </si>
+  <si>
+    <t>Zálohování</t>
+  </si>
+  <si>
+    <t>SSDLC</t>
+  </si>
+  <si>
+    <t>Zlepšování plánů kontinuity</t>
+  </si>
+  <si>
+    <t>Revidovat současné havarijní plány, rozpracovat k nim dílčí plány obnovy pro klíčové systémy.</t>
+  </si>
+  <si>
+    <t>Pracovní postupy pro servis</t>
+  </si>
+  <si>
+    <t>Dopracovat a zavést chybějící pracovní postupy (PO) pro Servis, zejména s ohledem na pravidla KyBe daných zákazníků a aktuálně platné smlouvy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Omezit riziko negativních událostí u zákazníků a z toho plynoucích sankcí.</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>costs</t>
+  </si>
+  <si>
+    <t>střední</t>
+  </si>
+  <si>
+    <t>6/2023</t>
+  </si>
+  <si>
+    <t>20 MD</t>
+  </si>
+  <si>
+    <t>vysoká</t>
+  </si>
+  <si>
+    <t>3/2023</t>
+  </si>
+  <si>
+    <t>4 MKč</t>
+  </si>
+  <si>
+    <t>220 tis. Kč</t>
+  </si>
+  <si>
+    <t>2/2023</t>
+  </si>
+  <si>
+    <t>350 tis. Kč</t>
+  </si>
+  <si>
+    <t>12/2022</t>
+  </si>
+  <si>
+    <t>5 MD</t>
+  </si>
+  <si>
+    <t>nízká</t>
+  </si>
+  <si>
+    <t>9/2023</t>
+  </si>
+  <si>
+    <t>30 MD</t>
+  </si>
+  <si>
+    <t>1/2023</t>
+  </si>
+  <si>
+    <t>1/2022</t>
+  </si>
+  <si>
+    <t>2/2022</t>
+  </si>
+  <si>
+    <t>3/2022</t>
+  </si>
+  <si>
+    <t>4/2022</t>
+  </si>
+  <si>
+    <t>5/2022</t>
+  </si>
+  <si>
+    <t>6/2022</t>
+  </si>
+  <si>
+    <t>7/2022</t>
+  </si>
+  <si>
+    <t>8/2022</t>
+  </si>
+  <si>
+    <t>9/2022</t>
+  </si>
+  <si>
+    <t>10/2022</t>
+  </si>
+  <si>
+    <t>11/2022</t>
+  </si>
+  <si>
+    <t>Počínaje rokem 2023 sestavit na roční bázi rozpočet pro řízení kybernetické bezpečnosti, který bude zahrnovat jak nákladovou část (osobní náklady, náklady na technická opatření…), tak i porovnání s příjmy od zákazníků s novými smlouvami (jak budou postupně uzavírány). Rozpočet bude konzultován/schválen vedením Společnosti.</t>
+  </si>
+  <si>
+    <t>Zajistit větší součinnost vedení Společnosti s řízením KyBe (MKB). Zajistit účast MKB na každém jednání představenstva Společnosti tak, aby mohl informovat jednotlivé členy vedení o aktuálním stavu KyBe a potřebných opatřeních k zajištění odpovídající úrovně KyBe v Společnosti.
+Reflektuje mj. doporučení z dohledového auditu CQS 2022.</t>
+  </si>
+  <si>
+    <t>Náhrada všech stávajících zastaralých switchů Cisco v lokalitě pracoviště_1 a v lokalitě pracoviště_2 včetně rozšíření 2FA a optimalizace zabezpečení LAN.</t>
+  </si>
+  <si>
+    <t>Revidovat a zlepšit proces detekce, vyhodnocování a zvládání kybernetických bezpečnostních událostí a zvládání kybernetických bezpečnostních incidentů - návaznost na sjednocení tiketovacího nástroje, evidenci vazby incidentu/události na KII/konkrétního zákazníka...
+Souvisí se zjištěním 9.1 auditu Zákazníka z r. 2021.</t>
+  </si>
+  <si>
+    <t>Popsat veškeré činnosti spojené se zálohováním do pracovního postupu č. 34, zejména umístění záloh (registr záloh), frekvenci zálohování, postupy obnovy systémů, testování záloh…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Lepší operativní řízení bezpečnosti.
+- Lepší reakce Společnosti na změny v oblasti KyBe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Větší pravděpodobnost detekce případných útoků - omezení rizika nedetekovaného útoku na Společnost.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Celkové zvýšení úrovně zabezpečení LAN Společnosti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Zajištění lepší návaznosti procesu na analýzu rizik a další oblasti KyBe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Zlepšení předpokladů úspěšné obnovy po havárii.
+- Zprůhlednění oblasti zálohování ve Společnosti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Zvýšit praktickou účinnost havarijních plánů a pravděpodobnosti úspěšné obnovy při reálné havárii.</t>
+  </si>
+  <si>
+    <t>Školení bezpečnostního povědomí zaměstnanců Společnosti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-H9,R-10,R-H8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-H9,R-H10,R-H8 </t>
+  </si>
+  <si>
+    <t>R-H35,R-H34,R-H33,R-H30,R-H4,R-H3</t>
+  </si>
+  <si>
+    <t>R-H8,R-H11</t>
+  </si>
+  <si>
+    <t>R-H31,R-H32,R-H33,R-H34,R-H35</t>
+  </si>
+  <si>
+    <t>R-H1,R-H2,R-H16,R-H17,R-H29,R-H30</t>
+  </si>
+  <si>
+    <t>R-H12,R-H13,R-H16,R-H17</t>
+  </si>
+  <si>
+    <t>R-H18,R-H21,R-H22,R-H23</t>
+  </si>
+  <si>
+    <t>R-H7,R-H19,R-H20</t>
+  </si>
+  <si>
+    <t>Provedení komplexních penetračních testů řídícího informačního systému nezávislým dodavatelem, použití výsledků ke zdokonalení SSDLC.</t>
+  </si>
+  <si>
+    <t>Provést periodické školení všech zaměstnanců ESYS v rozsahu:
+- seznámení s aktuálními hrozbami
+- seznámení s identifikovanými riziky z analýzy rizik Společnosti
+- opakování nejdůležitějších bezpečnostních opatření a pravidel</t>
+  </si>
+  <si>
+    <t>Implementace zásad, činností a postupů bezpečného vývoje do procesu vývoje řídíciho informačního systému v rámci Společnosti. Základem bude průběžně rozvíjený a aktualizovaný model hrozeb řídíciho informačního systému, ze kterého bude vycházet katalog doporučovaných opatření pro vývojáře jeho jednotlivých částí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Omezení rizik souvisejících s bezpečnostními chybami v rámci řídíciho informačního systému.</t>
+  </si>
+  <si>
+    <t>Integrace MKB do vedení Společnosti</t>
+  </si>
+  <si>
+    <t>Penetrační testy systému/aplikací řídícího informačního systému</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2171,6 +2410,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2189,56 +2437,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2250,62 +2501,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2314,15 +2565,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Hypertextový odkaz 3" xfId="2"/>
+    <cellStyle name="Normálne" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálne 2" xfId="1"/>
+    <cellStyle name="Normální 2" xfId="3"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2720,7 +3003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F752E6E-9130-4D4D-AAE3-E845D8CD3743}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2783,7 +3066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1015"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15930,7 +16213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BCF5C9-F889-48F9-B295-B432C12A95F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17665,14 +17948,376 @@
   <mergeCells count="1">
     <mergeCell ref="C113:C114"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE4BD54-4DDC-49D8-825C-E8285A82F8AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="48"/>
+    <col min="2" max="2" width="29" style="48" customWidth="1"/>
+    <col min="3" max="3" width="39.77734375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" style="48" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="57"/>
+    <col min="6" max="16384" width="8.88671875" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>661</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>642</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>662</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>679</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>643</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>690</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>702</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>667</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>678</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>680</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>715</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>691</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>695</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>703</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>667</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>678</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
+        <v>681</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>645</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>646</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>696</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>704</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>664</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>665</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
+        <v>682</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>647</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>692</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>697</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>704</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>667</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>668</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
+        <v>683</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>648</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>649</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>650</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>705</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>664</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>665</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>716</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>711</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>651</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>706</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>664</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>671</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
+        <v>685</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>701</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>712</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>652</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>707</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>664</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>673</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>653</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>693</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>698</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>706</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>675</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>673</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>654</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>694</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>699</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>708</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>664</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>665</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>655</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>713</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>714</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>667</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>676</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
+        <v>689</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>656</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>657</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>700</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>709</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>664</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>665</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="49" t="s">
+        <v>673</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>658</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>659</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>660</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>710</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>664</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>668</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -18965,10 +19610,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D36" xr:uid="{0BBB44C2-9E27-4820-AF44-DBD1EB4206A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D36">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E36" xr:uid="{02DF855A-38B8-4970-9EBD-F3092AFB4BAD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E36">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -18976,11 +19621,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB5F0F6-7CC2-45E3-B9D4-0563C84486E1}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -19279,7 +19924,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>298</v>
       </c>
@@ -19315,7 +19960,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>300</v>
       </c>
@@ -19385,16 +20030,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8" xr:uid="{BEC50583-A8D2-49EB-AE73-4E919C30BE3E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8" xr:uid="{8322259E-B31B-471C-B9FB-17BB795D17D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E10" xr:uid="{4D99D069-49E2-4D46-B73D-2D1E83CA5ED0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E10">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D10" xr:uid="{7FD8C14C-58D9-4204-A5B7-E8870F968DBA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D10">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
